--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_9_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_9_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.79000000000028</v>
+        <v>23.80000000000028</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005728444180789216</v>
+        <v>0.0003220541921479247</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005728444180789216</v>
+        <v>0.0003220541921479247</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>34.2216558455739</v>
+        <v>40.63506410647648</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[10.822898194658116, 57.62041349648968]</t>
+          <t>[19.06661478302071, 62.203513429932244]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.005086864712127825</v>
+        <v>0.0004391639257395052</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005086864712127825</v>
+        <v>0.0004391639257395052</v>
       </c>
       <c r="P2" t="n">
-        <v>1.540921321580579</v>
+        <v>1.62897396852804</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.6352369529781159, 2.446605690183042]</t>
+          <t>[0.9622896416401163, 2.295658295415964]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.001315308216438549</v>
+        <v>1.195143531074194e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001315308216438549</v>
+        <v>1.195143531074194e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>58.70906067841355</v>
+        <v>51.06925899217629</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.46451423241423, 72.95360712441287]</t>
+          <t>[37.983612786938295, 64.15490519741428]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.261633020277486e-10</v>
+        <v>5.507010403249524e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>1.261633020277486e-10</v>
+        <v>5.507010403249524e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>17.95561561561583</v>
+        <v>17.62962962962984</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5264264264266</v>
+        <v>15.10430430430448</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.38480480480506</v>
+        <v>20.15495495495519</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.79000000000028</v>
+        <v>23.80000000000028</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.280920001140885e-05</v>
+        <v>6.394189716707466e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>2.280920001140885e-05</v>
+        <v>6.394189716707466e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>51.86621006817934</v>
+        <v>57.25997674926753</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[27.369836645375486, 76.3625834909832]</t>
+          <t>[33.093457788081906, 81.42649571045315]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0001014404581167749</v>
+        <v>1.956131823721563e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001014404581167749</v>
+        <v>1.956131823721563e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.327079178993886</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.77360539818127, 1.8805529598065016]</t>
+          <t>[1.3648160276856558, 2.345974093671657]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.620546798375422e-05</v>
+        <v>1.249431447192251e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>1.620546798375422e-05</v>
+        <v>1.249431447192251e-09</v>
       </c>
       <c r="T3" t="n">
-        <v>66.5832286611483</v>
+        <v>61.95128043618536</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[52.534853804841305, 80.63160351745529]</t>
+          <t>[47.49736582059712, 76.4051950517736]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.184030734042608e-12</v>
+        <v>4.213718263201827e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>2.184030734042608e-12</v>
+        <v>4.213718263201827e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>18.76528528528551</v>
+        <v>16.77197197197217</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.66966966966987</v>
+        <v>14.91371371371389</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.86090090090115</v>
+        <v>18.63023023023045</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.79000000000028</v>
+        <v>23.80000000000028</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.807944858407296e-05</v>
+        <v>0.0002463665194947229</v>
       </c>
       <c r="I4" t="n">
-        <v>2.807944858407296e-05</v>
+        <v>0.0002463665194947229</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>47.55758155845616</v>
+        <v>35.8293676700638</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[26.926134953656856, 68.18902816325546]</t>
+          <t>[15.628524745311829, 56.03021059481576]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.991650399253309e-05</v>
+        <v>0.0008571597498645556</v>
       </c>
       <c r="O4" t="n">
-        <v>2.991650399253309e-05</v>
+        <v>0.0008571597498645556</v>
       </c>
       <c r="P4" t="n">
-        <v>1.478026573760963</v>
+        <v>1.352237078121732</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.9371317425122694, 2.0189214050096567]</t>
+          <t>[0.723289599925578, 1.9811845563178858]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.692328249536246e-06</v>
+        <v>8.220665341363009e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.692328249536246e-06</v>
+        <v>8.220665341363009e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>59.46463591653502</v>
+        <v>48.82031037082281</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.41722527804058, 72.51204655502946]</t>
+          <t>[37.49611649569451, 60.14450424595111]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>7.082778807898649e-12</v>
+        <v>3.570099771366131e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>7.082778807898649e-12</v>
+        <v>3.570099771366131e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>18.19375375375397</v>
+        <v>18.6778778778781</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.14576576576596</v>
+        <v>16.2954954954957</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.24174174174198</v>
+        <v>21.06026026026051</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.79000000000028</v>
+        <v>23.80000000000028</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.616436511477694e-06</v>
+        <v>0.0005092830219424194</v>
       </c>
       <c r="I5" t="n">
-        <v>3.616436511477694e-06</v>
+        <v>0.0005092830219424194</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>44.46763964276742</v>
+        <v>45.4691094664972</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[26.360951892389394, 62.57432739314545]</t>
+          <t>[18.616326564763625, 72.32189236823078]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.099519976910379e-05</v>
+        <v>0.001379391356885806</v>
       </c>
       <c r="O5" t="n">
-        <v>1.099519976910379e-05</v>
+        <v>0.001379391356885806</v>
       </c>
       <c r="P5" t="n">
-        <v>1.679289766783732</v>
+        <v>1.83023716155081</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.2012896833546538, 2.157289850212811]</t>
+          <t>[1.1258159859711148, 2.5346583371305043]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7.86551290765658e-09</v>
+        <v>4.217794747685133e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>7.86551290765658e-09</v>
+        <v>4.217794747685133e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>52.75811574957213</v>
+        <v>52.60207013019895</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[41.87518287801324, 63.64104862113101]</t>
+          <t>[37.417519433432716, 67.78662082696518]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.093125590045929e-12</v>
+        <v>1.10140412346027e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>1.093125590045929e-12</v>
+        <v>1.10140412346027e-08</v>
       </c>
       <c r="X5" t="n">
-        <v>17.43171171171192</v>
+        <v>16.86726726726747</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.62186186186205</v>
+        <v>14.19899899899917</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.2415615615618</v>
+        <v>19.53553553553578</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.79000000000028</v>
+        <v>23.80000000000028</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009801692914888083</v>
+        <v>0.0001812669036813652</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009801692914888083</v>
+        <v>0.0001812669036813652</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>40.82510997550239</v>
+        <v>43.98462586017584</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[17.300184639411455, 64.35003531159332]</t>
+          <t>[20.637199477788783, 67.3320522425629]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.001076344302988419</v>
+        <v>0.0004393994579445781</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001076344302988419</v>
+        <v>0.0004393994579445781</v>
       </c>
       <c r="P6" t="n">
-        <v>1.578658170272348</v>
+        <v>1.704447665911579</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.8239211964369622, 2.333395144107734]</t>
+          <t>[1.0755001877154244, 2.333395144107734]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0001195252394250446</v>
+        <v>1.973772644436877e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0001195252394250446</v>
+        <v>1.973772644436877e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>62.98809288598112</v>
+        <v>66.55755354790627</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.617109676169605, 77.35907609579264]</t>
+          <t>[52.94379619442904, 80.17131090138349]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.221511863353953e-11</v>
+        <v>8.411049634560186e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>2.221511863353953e-11</v>
+        <v>8.411049634560186e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>17.81273273273294</v>
+        <v>17.34374374374395</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.95507507507525</v>
+        <v>14.96136136136154</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.67039039039064</v>
+        <v>19.72612612612636</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.79000000000028</v>
+        <v>23.80000000000028</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000527296544504563</v>
+        <v>1.597541977749195e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000527296544504563</v>
+        <v>1.597541977749195e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>37.53479790689327</v>
+        <v>41.75857043119863</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[17.708757685494028, 57.36083812829252]</t>
+          <t>[20.13639834531414, 63.38074251708313]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0004150255891959276</v>
+        <v>0.0003280702460848328</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0004150255891959276</v>
+        <v>0.0003280702460848328</v>
       </c>
       <c r="P7" t="n">
-        <v>1.578658170272348</v>
+        <v>2.257921446724195</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.8616580451287312, 2.295658295415965]</t>
+          <t>[1.7547634641672705, 2.7610794292811196]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5.881198774604357e-05</v>
+        <v>1.118882764217233e-11</v>
       </c>
       <c r="S7" t="n">
-        <v>5.881198774604357e-05</v>
+        <v>1.118882764217233e-11</v>
       </c>
       <c r="T7" t="n">
-        <v>51.42708574904881</v>
+        <v>60.43840013920259</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[38.86109452730834, 63.99307697078929]</t>
+          <t>[49.32531081951519, 71.55148945888999]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.531699211909654e-10</v>
+        <v>2.775557561562891e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>1.531699211909654e-10</v>
+        <v>2.775557561562891e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>17.81273273273294</v>
+        <v>15.24724724724743</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.09795795795814</v>
+        <v>13.3413413413415</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.52750750750775</v>
+        <v>17.15315315315336</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.79000000000028</v>
+        <v>23.80000000000028</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004526009750282389</v>
+        <v>2.995735828803525e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004526009750282389</v>
+        <v>2.995735828803525e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>31.36768713389746</v>
+        <v>43.88200145460301</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[9.345289606591685, 53.39008466120324]</t>
+          <t>[24.164637205248887, 63.599365703957126]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.006253228452813175</v>
+        <v>5.037655934669871e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.006253228452813175</v>
+        <v>5.037655934669871e-05</v>
       </c>
       <c r="P8" t="n">
         <v>1.666710817219809</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.77360539818127, 2.5598162362583485]</t>
+          <t>[1.1132370364071917, 2.220184598032427]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0004897768372684741</v>
+        <v>2.498463518296745e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0004897768372684741</v>
+        <v>2.498463518296745e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>69.68121129061097</v>
+        <v>67.01921134445361</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[56.950056705572635, 82.41236587564931]</t>
+          <t>[54.93943735647021, 79.09898533243701]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.242650509742816e-14</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>2.242650509742816e-14</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>17.47933933933955</v>
+        <v>17.48668668668689</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.09777777777795</v>
+        <v>15.39019019019037</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.86090090090115</v>
+        <v>19.58318318318342</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.79000000000028</v>
+        <v>23.80000000000028</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>6.751821618800058e-06</v>
+        <v>9.743988533261749e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>6.751821618800058e-06</v>
+        <v>9.743988533261749e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>50.74076668019097</v>
+        <v>49.47070792717385</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[30.547700976838314, 70.93383238354363]</t>
+          <t>[24.446201552900035, 74.49521430144766]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7.506085105468685e-06</v>
+        <v>0.0002469548513202025</v>
       </c>
       <c r="O9" t="n">
-        <v>7.506085105468685e-06</v>
+        <v>0.0002469548513202025</v>
       </c>
       <c r="P9" t="n">
-        <v>1.578658170272348</v>
+        <v>2.207605648468503</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.0755001877154244, 2.081816152829272]</t>
+          <t>[1.7044476659115793, 2.7107636310254266]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.047103852513942e-07</v>
+        <v>2.156719247636829e-11</v>
       </c>
       <c r="S9" t="n">
-        <v>1.047103852513942e-07</v>
+        <v>2.156719247636829e-11</v>
       </c>
       <c r="T9" t="n">
-        <v>64.94291643769252</v>
+        <v>66.19177790968139</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[52.10933667458107, 77.77649620080396]</t>
+          <t>[53.38090259571982, 79.00265322364297]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.855493619335903e-13</v>
+        <v>1.469935284603707e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.855493619335903e-13</v>
+        <v>1.469935284603707e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>17.81273273273294</v>
+        <v>15.43783783783802</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.90762762762782</v>
+        <v>13.53193193193209</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.71783783783807</v>
+        <v>17.34374374374395</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.79000000000028</v>
+        <v>23.80000000000028</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08566581992647504</v>
+        <v>0.0004474018792164358</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08566581992647504</v>
+        <v>0.0004474018792164358</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>20.78638521294601</v>
+        <v>36.45897232285434</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-4.757761597752321, 46.33053202364434]</t>
+          <t>[15.286051160609766, 57.63189348509891]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.108194660982964</v>
+        <v>0.001165323461324475</v>
       </c>
       <c r="O10" t="n">
-        <v>0.108194660982964</v>
+        <v>0.001165323461324475</v>
       </c>
       <c r="P10" t="n">
-        <v>2.320816194543811</v>
+        <v>1.943447707626118</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.8176317216550011, 5.459264110742623]</t>
+          <t>[1.301921279866039, 2.5849741353861964]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1433612638625363</v>
+        <v>2.206328975074001e-07</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1433612638625363</v>
+        <v>2.206328975074001e-07</v>
       </c>
       <c r="T10" t="n">
-        <v>52.28508674525657</v>
+        <v>56.6603233941688</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[39.31153518740983, 65.25863830310331]</t>
+          <t>[44.59411493673073, 68.72653185160686]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.329700876657625e-10</v>
+        <v>2.894351425197783e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>2.329700876657625e-10</v>
+        <v>2.894351425197783e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00270270270288</v>
+        <v>16.43843843843863</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.119609609609649</v>
+        <v>14.00840840840857</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.88579579579611</v>
+        <v>18.86846846846869</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.74000000000027</v>
+        <v>23.16000000000018</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>5.603677173282584e-05</v>
+        <v>0.06166352672390341</v>
       </c>
       <c r="I11" t="n">
-        <v>5.603677173282584e-05</v>
+        <v>0.06166352672390341</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>40.09874624873926</v>
+        <v>19.86971052569707</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[17.764412945166306, 62.433079552312215]</t>
+          <t>[-0.8719102250083139, 40.61133127640246]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0007524402107734751</v>
+        <v>0.05999637672113933</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0007524402107734751</v>
+        <v>0.05999637672113933</v>
       </c>
       <c r="P11" t="n">
-        <v>2.081816152829273</v>
+        <v>1.389973926813503</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.5157634224527339, 2.6478688832058115]</t>
+          <t>[-0.018868424345883206, 2.7988162779728887]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.544978228158357e-09</v>
+        <v>0.05301574223404937</v>
       </c>
       <c r="S11" t="n">
-        <v>2.544978228158357e-09</v>
+        <v>0.05301574223404937</v>
       </c>
       <c r="T11" t="n">
-        <v>53.3248565310453</v>
+        <v>38.76209776906323</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[41.84609800817974, 64.80361505391086]</t>
+          <t>[27.337519196644557, 50.186676341481906]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.003464226798314e-12</v>
+        <v>1.799441529115597e-08</v>
       </c>
       <c r="W11" t="n">
-        <v>4.003464226798314e-12</v>
+        <v>1.799441529115597e-08</v>
       </c>
       <c r="X11" t="n">
-        <v>15.87419419419438</v>
+        <v>18.03651651651666</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.73545545545561</v>
+        <v>12.84348348348358</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.01293293293314</v>
+        <v>23.22954954954973</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.74000000000027</v>
+        <v>23.16000000000018</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>9.79015021927987e-05</v>
+        <v>4.256401239843832e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>9.79015021927987e-05</v>
+        <v>4.256401239843832e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>49.16363640681051</v>
+        <v>42.21886769180235</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[24.930509098629116, 73.3967637149919]</t>
+          <t>[23.362505477286774, 61.07522990631793]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0001782167670867363</v>
+        <v>4.615415049191718e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0001782167670867363</v>
+        <v>4.615415049191718e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>1.717026615475503</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.1132370364071953, 2.320816194543811]</t>
+          <t>[0.9874475407679633, 2.094395102393195]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>7.908827903690963e-07</v>
+        <v>1.190069760736989e-06</v>
       </c>
       <c r="S12" t="n">
-        <v>7.908827903690963e-07</v>
+        <v>1.190069760736989e-06</v>
       </c>
       <c r="T12" t="n">
-        <v>63.16378569655999</v>
+        <v>66.18614380567146</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[48.59173626833092, 77.73583512478906]</t>
+          <t>[54.45034520988506, 77.92194240145787]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.057620823199159e-11</v>
+        <v>8.215650382226158e-15</v>
       </c>
       <c r="W12" t="n">
-        <v>3.057620823199159e-11</v>
+        <v>8.215650382226158e-15</v>
       </c>
       <c r="X12" t="n">
-        <v>17.25249249249269</v>
+        <v>17.48012012012026</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.97117117117134</v>
+        <v>15.44000000000012</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.53381381381404</v>
+        <v>19.52024024024039</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.74000000000027</v>
+        <v>23.16000000000018</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>5.462774549380711e-07</v>
+        <v>4.950507670187232e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>5.462774549380711e-07</v>
+        <v>4.950507670187232e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>53.14756855173567</v>
+        <v>54.07706661653019</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[31.86052199258006, 74.43461511089129]</t>
+          <t>[27.440965772018174, 80.7131674610422]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>8.362120475835511e-06</v>
+        <v>0.0001766038367954081</v>
       </c>
       <c r="O13" t="n">
-        <v>8.362120475835511e-06</v>
+        <v>0.0001766038367954081</v>
       </c>
       <c r="P13" t="n">
-        <v>1.842816111114733</v>
+        <v>1.880552959806503</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.389973926813501, 2.295658295415966]</t>
+          <t>[1.2893423303021185, 2.4717635893108882]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.788695858095934e-10</v>
+        <v>7.764234122298319e-08</v>
       </c>
       <c r="S13" t="n">
-        <v>1.788695858095934e-10</v>
+        <v>7.764234122298319e-08</v>
       </c>
       <c r="T13" t="n">
-        <v>64.68087045802891</v>
+        <v>68.10397386922585</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[52.838086964431156, 76.52365395162666]</t>
+          <t>[52.87685501816634, 83.33109272028537]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.420286193682841e-14</v>
+        <v>1.233901869568399e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>2.420286193682841e-14</v>
+        <v>1.233901869568399e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>16.77721721721741</v>
+        <v>16.22822822822835</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.06622622622639</v>
+        <v>14.04900900900912</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.48820820820842</v>
+        <v>18.40744744744759</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.74000000000027</v>
+        <v>23.16000000000018</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.003946184801640107</v>
+        <v>1.080018715715614e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003946184801640107</v>
+        <v>1.080018715715614e-05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>31.34005516160015</v>
+        <v>47.06194846160798</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[6.584258032705883, 56.09585229049442]</t>
+          <t>[23.914320265208687, 70.20957665800726]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.01425499564857402</v>
+        <v>0.0001733911369581342</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01425499564857402</v>
+        <v>0.0001733911369581342</v>
       </c>
       <c r="P14" t="n">
-        <v>2.333395144107735</v>
+        <v>2.044079304137503</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.6667108172198106, 3.0000794709956584]</t>
+          <t>[1.515763422452732, 2.5723951858222733]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>8.609838841877604e-09</v>
+        <v>6.917479922208258e-10</v>
       </c>
       <c r="S14" t="n">
-        <v>8.609838841877604e-09</v>
+        <v>6.917479922208258e-10</v>
       </c>
       <c r="T14" t="n">
-        <v>69.20483621180364</v>
+        <v>70.63352501407005</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[56.62124214407906, 81.78843027952821]</t>
+          <t>[58.472079647551226, 82.79497038058886]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.931788062847772e-14</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="W14" t="n">
-        <v>1.931788062847772e-14</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="X14" t="n">
-        <v>14.92364364364381</v>
+        <v>15.62546546546559</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.40468468468483</v>
+        <v>13.67807807807818</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.4426026026028</v>
+        <v>17.572852852853</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_9_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_9_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.80000000000028</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0003220541921479247</v>
+        <v>0.0006406157285724356</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003220541921479247</v>
+        <v>0.0006406157285724356</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>40.63506410647648</v>
+        <v>46.84429676771133</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[19.06661478302071, 62.203513429932244]</t>
+          <t>[21.331626689890328, 72.35696684553233]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0004391639257395052</v>
+        <v>0.0005882775448311506</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0004391639257395052</v>
+        <v>0.0005882775448311506</v>
       </c>
       <c r="P2" t="n">
-        <v>1.62897396852804</v>
+        <v>1.528342372016657</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.9622896416401163, 2.295658295415964]</t>
+          <t>[0.7861843477451949, 2.270500396288119]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.195143531074194e-05</v>
+        <v>0.0001468669364199648</v>
       </c>
       <c r="S2" t="n">
-        <v>1.195143531074194e-05</v>
+        <v>0.0001468669364199648</v>
       </c>
       <c r="T2" t="n">
-        <v>51.06925899217629</v>
+        <v>64.53985231168103</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[37.983612786938295, 64.15490519741428]</t>
+          <t>[48.60748979025481, 80.47221483310724]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.507010403249524e-10</v>
+        <v>2.026467882387806e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>5.507010403249524e-10</v>
+        <v>2.026467882387806e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>17.62962962962984</v>
+        <v>18.063783783784</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.10430430430448</v>
+        <v>15.24430430430449</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.15495495495519</v>
+        <v>20.88326326326351</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.80000000000028</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6.394189716707466e-06</v>
+        <v>0.001627656678444889</v>
       </c>
       <c r="I3" t="n">
-        <v>6.394189716707466e-06</v>
+        <v>0.001627656678444889</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>57.25997674926753</v>
+        <v>38.67003320284317</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[33.093457788081906, 81.42649571045315]</t>
+          <t>[14.413199798781264, 62.92686660690508]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.956131823721563e-05</v>
+        <v>0.002444016947162675</v>
       </c>
       <c r="O3" t="n">
-        <v>1.956131823721563e-05</v>
+        <v>0.002444016947162675</v>
       </c>
       <c r="P3" t="n">
-        <v>1.855395060678656</v>
+        <v>1.478026573760964</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.3648160276856558, 2.345974093671657]</t>
+          <t>[0.672973801669885, 2.283079345852043]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.249431447192251e-09</v>
+        <v>0.0005889259387017454</v>
       </c>
       <c r="S3" t="n">
-        <v>1.249431447192251e-09</v>
+        <v>0.0005889259387017454</v>
       </c>
       <c r="T3" t="n">
-        <v>61.95128043618536</v>
+        <v>61.55489206315099</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.49736582059712, 76.4051950517736]</t>
+          <t>[47.32620114326052, 75.78358298304147]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.213718263201827e-11</v>
+        <v>3.233768808286186e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>4.213718263201827e-11</v>
+        <v>3.233768808286186e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>16.77197197197217</v>
+        <v>18.25493493493516</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.91371371371389</v>
+        <v>15.1965165165167</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.63023023023045</v>
+        <v>21.31335335335362</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.80000000000028</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0002463665194947229</v>
+        <v>9.161068287188989e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002463665194947229</v>
+        <v>9.161068287188989e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>35.8293676700638</v>
+        <v>42.54273165413009</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[15.628524745311829, 56.03021059481576]</t>
+          <t>[23.91113501276265, 61.17432829549754]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0008571597498645556</v>
+        <v>3.451269657817058e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0008571597498645556</v>
+        <v>3.451269657817058e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.352237078121732</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.723289599925578, 1.9811845563178858]</t>
+          <t>[1.2390265320464247, 2.245342497160272]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>8.220665341363009e-05</v>
+        <v>1.114232839327656e-08</v>
       </c>
       <c r="S4" t="n">
-        <v>8.220665341363009e-05</v>
+        <v>1.114232839327656e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>48.82031037082281</v>
+        <v>60.36046283365021</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[37.49611649569451, 60.14450424595111]</t>
+          <t>[49.393187841057134, 71.3277378262433]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.570099771366131e-11</v>
+        <v>1.865174681370263e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>3.570099771366131e-11</v>
+        <v>1.865174681370263e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>18.6778778778781</v>
+        <v>17.2513913913916</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.2954954954957</v>
+        <v>15.33987987988007</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.06026026026051</v>
+        <v>19.16290290290314</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.80000000000028</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0005092830219424194</v>
+        <v>0.0003587042544926922</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0005092830219424194</v>
+        <v>0.0003587042544926922</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>45.4691094664972</v>
+        <v>35.58503694441337</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[18.616326564763625, 72.32189236823078]</t>
+          <t>[13.4126016714877, 57.75747221733905]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.001379391356885806</v>
+        <v>0.00229906450082451</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001379391356885806</v>
+        <v>0.00229906450082451</v>
       </c>
       <c r="P5" t="n">
-        <v>1.83023716155081</v>
+        <v>2.056658253701427</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.1258159859711148, 2.5346583371305043]</t>
+          <t>[1.4151318259413497, 2.6981846814615036]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.217794747685133e-06</v>
+        <v>6.53271632344854e-08</v>
       </c>
       <c r="S5" t="n">
-        <v>4.217794747685133e-06</v>
+        <v>6.53271632344854e-08</v>
       </c>
       <c r="T5" t="n">
-        <v>52.60207013019895</v>
+        <v>54.2907646718283</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[37.417519433432716, 67.78662082696518]</t>
+          <t>[42.69265349817408, 65.88887584548252]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.10140412346027e-08</v>
+        <v>3.183675545415099e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>1.10140412346027e-08</v>
+        <v>3.183675545415099e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>16.86726726726747</v>
+        <v>16.05669669669689</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.19899899899917</v>
+        <v>13.61951951951969</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.53553553553578</v>
+        <v>18.4938738738741</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.80000000000028</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001812669036813652</v>
+        <v>8.186240253849064e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001812669036813652</v>
+        <v>8.186240253849064e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>43.98462586017584</v>
+        <v>39.41738946068431</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[20.637199477788783, 67.3320522425629]</t>
+          <t>[18.236580289482717, 60.59819863188591]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0004393994579445781</v>
+        <v>0.000505592223746687</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0004393994579445781</v>
+        <v>0.000505592223746687</v>
       </c>
       <c r="P6" t="n">
-        <v>1.704447665911579</v>
+        <v>1.943447707626118</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.0755001877154244, 2.333395144107734]</t>
+          <t>[1.352237078121731, 2.5346583371305043]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.973772644436877e-06</v>
+        <v>3.727033481837339e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>1.973772644436877e-06</v>
+        <v>3.727033481837339e-08</v>
       </c>
       <c r="T6" t="n">
-        <v>66.55755354790627</v>
+        <v>53.15144958304734</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[52.94379619442904, 80.17131090138349]</t>
+          <t>[41.5697078861476, 64.73319127994708]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.411049634560186e-13</v>
+        <v>5.765388166878438e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>8.411049634560186e-13</v>
+        <v>5.765388166878438e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>17.34374374374395</v>
+        <v>16.48678678678699</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.96136136136154</v>
+        <v>14.24076076076093</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.72612612612636</v>
+        <v>18.73281281281305</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.80000000000028</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.597541977749195e-05</v>
+        <v>5.243528222864668e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>1.597541977749195e-05</v>
+        <v>5.243528222864668e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>41.75857043119863</v>
+        <v>44.47434019546891</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[20.13639834531414, 63.38074251708313]</t>
+          <t>[19.29374990191272, 69.6549304890251]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0003280702460848328</v>
+        <v>0.0008961338521022988</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0003280702460848328</v>
+        <v>0.0008961338521022988</v>
       </c>
       <c r="P7" t="n">
-        <v>2.257921446724195</v>
+        <v>2.383710942363427</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.7547634641672705, 2.7610794292811196]</t>
+          <t>[1.8679740102425795, 2.8994478744842738]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.118882764217233e-11</v>
+        <v>4.663380792635508e-12</v>
       </c>
       <c r="S7" t="n">
-        <v>1.118882764217233e-11</v>
+        <v>4.663380792635508e-12</v>
       </c>
       <c r="T7" t="n">
-        <v>60.43840013920259</v>
+        <v>52.97948933881715</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.32531081951519, 71.55148945888999]</t>
+          <t>[40.248017249205006, 65.7109614284293]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.775557561562891e-14</v>
+        <v>9.668998934841966e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>2.775557561562891e-14</v>
+        <v>9.668998934841966e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>15.24724724724743</v>
+        <v>14.8142142142144</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.3413413413415</v>
+        <v>12.85491491491507</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.15315315315336</v>
+        <v>16.77351351351372</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.80000000000028</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.995735828803525e-05</v>
+        <v>9.404109774802105e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>2.995735828803525e-05</v>
+        <v>9.404109774802105e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>43.88200145460301</v>
+        <v>41.09071351241542</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[24.164637205248887, 63.599365703957126]</t>
+          <t>[18.090824368695436, 64.0906026561354]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.037655934669871e-05</v>
+        <v>0.0007933975569454077</v>
       </c>
       <c r="O8" t="n">
-        <v>5.037655934669871e-05</v>
+        <v>0.0007933975569454077</v>
       </c>
       <c r="P8" t="n">
-        <v>1.666710817219809</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.1132370364071917, 2.220184598032427]</t>
+          <t>[1.3899739268135018, 2.5220793875665812]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.498463518296745e-07</v>
+        <v>1.168754981684117e-08</v>
       </c>
       <c r="S8" t="n">
-        <v>2.498463518296745e-07</v>
+        <v>1.168754981684117e-08</v>
       </c>
       <c r="T8" t="n">
-        <v>67.01921134445361</v>
+        <v>65.51195757391844</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[54.93943735647021, 79.09898533243701]</t>
+          <t>[53.32627224999004, 77.69764289784683]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>4.063416270128073e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>4.063416270128073e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>17.48668668668689</v>
+        <v>16.4389989989992</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.39019019019037</v>
+        <v>14.28854854854872</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.58318318318342</v>
+        <v>18.58944944944968</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.80000000000028</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>9.743988533261749e-06</v>
+        <v>0.0002442132950946085</v>
       </c>
       <c r="I9" t="n">
-        <v>9.743988533261749e-06</v>
+        <v>0.0002442132950946085</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>49.47070792717385</v>
+        <v>40.55239782931874</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[24.446201552900035, 74.49521430144766]</t>
+          <t>[20.791263976950667, 60.31353168168682]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0002469548513202025</v>
+        <v>0.0001537276992078507</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0002469548513202025</v>
+        <v>0.0001537276992078507</v>
       </c>
       <c r="P9" t="n">
-        <v>2.207605648468503</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.7044476659115793, 2.7107636310254266]</t>
+          <t>[0.8365001460008861, 2.19502669890458]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.156719247636829e-11</v>
+        <v>4.846607897524002e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>2.156719247636829e-11</v>
+        <v>4.846607897524002e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>66.19177790968139</v>
+        <v>51.37289246429791</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[53.38090259571982, 79.00265322364297]</t>
+          <t>[38.5367359719983, 64.20904895659751]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.469935284603707e-13</v>
+        <v>2.811690880122342e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>1.469935284603707e-13</v>
+        <v>2.811690880122342e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>15.43783783783802</v>
+        <v>18.11157157157179</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.53193193193209</v>
+        <v>15.53103103103122</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.34374374374395</v>
+        <v>20.69211211211237</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.80000000000028</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0004474018792164358</v>
+        <v>6.779681615998179e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004474018792164358</v>
+        <v>6.779681615998179e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>36.45897232285434</v>
+        <v>49.830885906156</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[15.286051160609766, 57.63189348509891]</t>
+          <t>[25.521813212338117, 74.13995859997388]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.001165323461324475</v>
+        <v>0.0001559278855813861</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001165323461324475</v>
+        <v>0.0001559278855813861</v>
       </c>
       <c r="P10" t="n">
-        <v>1.943447707626118</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.301921279866039, 2.5849741353861964]</t>
+          <t>[1.2138686329185786, 2.39628989192735]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.206328975074001e-07</v>
+        <v>1.872812078751451e-07</v>
       </c>
       <c r="S10" t="n">
-        <v>2.206328975074001e-07</v>
+        <v>1.872812078751451e-07</v>
       </c>
       <c r="T10" t="n">
-        <v>56.6603233941688</v>
+        <v>65.54856304559743</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[44.59411493673073, 68.72653185160686]</t>
+          <t>[51.088672393305814, 80.00845369788905]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.894351425197783e-12</v>
+        <v>8.305800491825721e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>2.894351425197783e-12</v>
+        <v>8.305800491825721e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>16.43843843843863</v>
+        <v>17.01245245245266</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.00840840840857</v>
+        <v>14.76642642642661</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.86846846846869</v>
+        <v>19.25847847847871</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.16000000000018</v>
+        <v>23.66000000000026</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06166352672390341</v>
+        <v>0.002052423966248718</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06166352672390341</v>
+        <v>0.002052423966248718</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>19.86971052569707</v>
+        <v>34.20141747174364</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.8719102250083139, 40.61133127640246]</t>
+          <t>[10.821919514657978, 57.5809154288293]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.05999637672113933</v>
+        <v>0.005077480930567368</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05999637672113933</v>
+        <v>0.005077480930567368</v>
       </c>
       <c r="P11" t="n">
-        <v>1.389973926813503</v>
+        <v>1.867974010242579</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.018868424345883206, 2.7988162779728887]</t>
+          <t>[1.0880791372793475, 2.6478688832058115]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.05301574223404937</v>
+        <v>1.648442194479571e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05301574223404937</v>
+        <v>1.648442194479571e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>38.76209776906323</v>
+        <v>52.65303150195032</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[27.337519196644557, 50.186676341481906]</t>
+          <t>[39.82982606207001, 65.47623694183063]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.799441529115597e-08</v>
+        <v>1.399058646711637e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>1.799441529115597e-08</v>
+        <v>1.399058646711637e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>18.03651651651666</v>
+        <v>16.62594594594613</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.84348348348358</v>
+        <v>13.68916916916932</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.22954954954973</v>
+        <v>19.56272272272294</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.16000000000018</v>
+        <v>23.66000000000026</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>4.256401239843832e-05</v>
+        <v>1.701971569512128e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>4.256401239843832e-05</v>
+        <v>1.701971569512128e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>42.21886769180235</v>
+        <v>51.61935556823465</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[23.362505477286774, 61.07522990631793]</t>
+          <t>[27.997107568795187, 75.24160356767412]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.615415049191718e-05</v>
+        <v>6.547943457912986e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>4.615415049191718e-05</v>
+        <v>6.547943457912986e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>1.540921321580579</v>
+        <v>1.717026615475502</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.9874475407679633, 2.094395102393195]</t>
+          <t>[1.1887107337907317, 2.245342497160273]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.190069760736989e-06</v>
+        <v>4.818426413422117e-08</v>
       </c>
       <c r="S12" t="n">
-        <v>1.190069760736989e-06</v>
+        <v>4.818426413422117e-08</v>
       </c>
       <c r="T12" t="n">
-        <v>66.18614380567146</v>
+        <v>57.83872798892236</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[54.45034520988506, 77.92194240145787]</t>
+          <t>[44.121775237267244, 71.55568074057747]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.215650382226158e-15</v>
+        <v>6.687717046816033e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>8.215650382226158e-15</v>
+        <v>6.687717046816033e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>17.48012012012026</v>
+        <v>17.19435435435454</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.44000000000012</v>
+        <v>15.20492492492509</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.52024024024039</v>
+        <v>19.183783783784</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.16000000000018</v>
+        <v>23.66000000000026</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.950507670187232e-05</v>
+        <v>0.007196474147592058</v>
       </c>
       <c r="I13" t="n">
-        <v>4.950507670187232e-05</v>
+        <v>0.007196474147592058</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>54.07706661653019</v>
+        <v>33.76321875784004</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[27.440965772018174, 80.7131674610422]</t>
+          <t>[6.410592441535407, 61.11584507414468]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0001766038367954081</v>
+        <v>0.01669274594705583</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0001766038367954081</v>
+        <v>0.01669274594705583</v>
       </c>
       <c r="P13" t="n">
-        <v>1.880552959806503</v>
+        <v>2.018921405009658</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.2893423303021185, 2.4717635893108882]</t>
+          <t>[1.0755001877154244, 2.9623426223038907]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>7.764234122298319e-08</v>
+        <v>8.767575461177124e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>7.764234122298319e-08</v>
+        <v>8.767575461177124e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>68.10397386922585</v>
+        <v>52.05336569724214</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[52.87685501816634, 83.33109272028537]</t>
+          <t>[37.64936029353865, 66.45737110094564]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.233901869568399e-11</v>
+        <v>3.94277610560323e-09</v>
       </c>
       <c r="W13" t="n">
-        <v>1.233901869568399e-11</v>
+        <v>3.94277610560323e-09</v>
       </c>
       <c r="X13" t="n">
-        <v>16.22822822822835</v>
+        <v>16.05753753753771</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.04900900900912</v>
+        <v>12.50498498498512</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.40744744744759</v>
+        <v>19.61009009009031</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.16000000000018</v>
+        <v>23.66000000000026</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.080018715715614e-05</v>
+        <v>0.0004102273083221863</v>
       </c>
       <c r="I14" t="n">
-        <v>1.080018715715614e-05</v>
+        <v>0.0004102273083221863</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>47.06194846160798</v>
+        <v>38.83298664876914</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[23.914320265208687, 70.20957665800726]</t>
+          <t>[14.912699635650561, 62.753273661887725]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.0001733911369581342</v>
+        <v>0.002067964228633423</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0001733911369581342</v>
+        <v>0.002067964228633423</v>
       </c>
       <c r="P14" t="n">
-        <v>2.044079304137503</v>
+        <v>2.081816152829272</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.515763422452732, 2.5723951858222733]</t>
+          <t>[1.427710775505271, 2.7359215301532727]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6.917479922208258e-10</v>
+        <v>7.666223322821963e-08</v>
       </c>
       <c r="S14" t="n">
-        <v>6.917479922208258e-10</v>
+        <v>7.666223322821963e-08</v>
       </c>
       <c r="T14" t="n">
-        <v>70.63352501407005</v>
+        <v>58.73881460626099</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[58.472079647551226, 82.79497038058886]</t>
+          <t>[45.984281418821396, 71.4933477937006]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>5.193845353801407e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>5.193845353801407e-12</v>
       </c>
       <c r="X14" t="n">
-        <v>15.62546546546559</v>
+        <v>15.82070070070088</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.67807807807818</v>
+        <v>13.35759759759775</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.572852852853</v>
+        <v>18.28380380380401</v>
       </c>
     </row>
   </sheetData>
